--- a/General Info/Municipal Code Matching.xlsx
+++ b/General Info/Municipal Code Matching.xlsx
@@ -2315,10 +2315,10 @@
     <t>Grad Uzice</t>
   </si>
   <si>
-    <t>mb</t>
-  </si>
-  <si>
     <t>mun</t>
+  </si>
+  <si>
+    <t>mun_id</t>
   </si>
 </sst>
 </file>
@@ -2354,6 +2354,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2839,7 +2840,7 @@
   <dimension ref="A1:B175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2849,10 +2850,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B1" t="s">
         <v>763</v>
-      </c>
-      <c r="B1" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="2" spans="1:2">
